--- a/Week 3/Week 3 Homework.xlsx
+++ b/Week 3/Week 3 Homework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6.1" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <start/>
       <end/>
@@ -490,6 +490,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -535,7 +615,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -548,6 +628,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -593,17 +689,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -19889,64 +19975,64 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>83.715447154471548</c:v>
+                  <c:v>87.772727272727266</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.674796747967477</c:v>
+                  <c:v>85.88636363636364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84.260162601626021</c:v>
+                  <c:v>87.193181818181813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.357723577235774</c:v>
+                  <c:v>88.01136363636364</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84.032520325203251</c:v>
+                  <c:v>87.795454545454547</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81.552845528455279</c:v>
+                  <c:v>85.272727272727266</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83.58536585365853</c:v>
+                  <c:v>87.931818181818187</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.479674796747972</c:v>
+                  <c:v>84.920454545454547</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.764227642276424</c:v>
+                  <c:v>84.568181818181813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83.357723577235774</c:v>
+                  <c:v>86.704545454545453</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83.048780487804876</c:v>
+                  <c:v>87.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>85.39837398373983</c:v>
+                  <c:v>89.23863636363636</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>82.512195121951223</c:v>
+                  <c:v>86.318181818181813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80.99186991869918</c:v>
+                  <c:v>85.284090909090907</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87.211382113821145</c:v>
+                  <c:v>91.090909090909093</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>85.276422764227647</c:v>
+                  <c:v>89.840909090909093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>84.650406504065046</c:v>
+                  <c:v>88.806818181818187</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>81.666666666666671</c:v>
+                  <c:v>84.647727272727266</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83.943089430894304</c:v>
+                  <c:v>86.63636363636364</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>83.300813008130078</c:v>
+                  <c:v>87.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21620,8 +21706,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126:AQ126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45033,10 +45119,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45323,84 +45409,84 @@
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <f>AVERAGE('6.1'!B3:B125)</f>
-        <v>83.715447154471548</v>
+        <f>AVERAGE('6.1'!B3:B90)</f>
+        <v>87.772727272727266</v>
       </c>
       <c r="D7" s="2">
-        <f>AVERAGE('6.1'!D3:D125)</f>
-        <v>81.674796747967477</v>
+        <f>AVERAGE('6.1'!D3:D90)</f>
+        <v>85.88636363636364</v>
       </c>
       <c r="E7" s="2">
-        <f>AVERAGE('6.1'!F3:F125)</f>
-        <v>84.260162601626021</v>
+        <f>AVERAGE('6.1'!F3:F90)</f>
+        <v>87.193181818181813</v>
       </c>
       <c r="F7" s="2">
-        <f>AVERAGE('6.1'!H3:H125)</f>
-        <v>83.357723577235774</v>
+        <f>AVERAGE('6.1'!H3:H90)</f>
+        <v>88.01136363636364</v>
       </c>
       <c r="G7" s="2">
-        <f>AVERAGE('6.1'!J3:J125)</f>
-        <v>84.032520325203251</v>
+        <f>AVERAGE('6.1'!J3:J90)</f>
+        <v>87.795454545454547</v>
       </c>
       <c r="H7" s="2">
-        <f>AVERAGE('6.1'!L3:L125)</f>
-        <v>81.552845528455279</v>
+        <f>AVERAGE('6.1'!L3:L90)</f>
+        <v>85.272727272727266</v>
       </c>
       <c r="I7" s="2">
-        <f>AVERAGE('6.1'!N3:N125)</f>
-        <v>83.58536585365853</v>
+        <f>AVERAGE('6.1'!N3:N90)</f>
+        <v>87.931818181818187</v>
       </c>
       <c r="J7" s="2">
-        <f>AVERAGE('6.1'!P3:P125)</f>
-        <v>81.479674796747972</v>
+        <f>AVERAGE('6.1'!P3:P90)</f>
+        <v>84.920454545454547</v>
       </c>
       <c r="K7" s="2">
-        <f>AVERAGE('6.1'!R3:R125)</f>
-        <v>81.764227642276424</v>
+        <f>AVERAGE('6.1'!R3:R90)</f>
+        <v>84.568181818181813</v>
       </c>
       <c r="L7" s="2">
-        <f>AVERAGE('6.1'!T3:T125)</f>
-        <v>83.357723577235774</v>
+        <f>AVERAGE('6.1'!T3:T90)</f>
+        <v>86.704545454545453</v>
       </c>
       <c r="M7" s="2">
-        <f>AVERAGE('6.1'!V3:V125)</f>
-        <v>83.048780487804876</v>
+        <f>AVERAGE('6.1'!V3:V90)</f>
+        <v>87.545454545454547</v>
       </c>
       <c r="N7" s="2">
-        <f>AVERAGE('6.1'!X3:X125)</f>
-        <v>85.39837398373983</v>
+        <f>AVERAGE('6.1'!X3:X90)</f>
+        <v>89.23863636363636</v>
       </c>
       <c r="O7" s="2">
-        <f>AVERAGE('6.1'!Z3:Z125)</f>
-        <v>82.512195121951223</v>
+        <f>AVERAGE('6.1'!Z3:Z90)</f>
+        <v>86.318181818181813</v>
       </c>
       <c r="P7" s="2">
-        <f>AVERAGE('6.1'!AB3:AB125)</f>
-        <v>80.99186991869918</v>
+        <f>AVERAGE('6.1'!AB3:AB90)</f>
+        <v>85.284090909090907</v>
       </c>
       <c r="Q7" s="2">
-        <f>AVERAGE('6.1'!AD3:AD125)</f>
-        <v>87.211382113821145</v>
+        <f>AVERAGE('6.1'!AD3:AD90)</f>
+        <v>91.090909090909093</v>
       </c>
       <c r="R7" s="2">
-        <f>AVERAGE('6.1'!AF3:AF125)</f>
-        <v>85.276422764227647</v>
+        <f>AVERAGE('6.1'!AF3:AF90)</f>
+        <v>89.840909090909093</v>
       </c>
       <c r="S7" s="2">
-        <f>AVERAGE('6.1'!AH3:AH125)</f>
-        <v>84.650406504065046</v>
+        <f>AVERAGE('6.1'!AH3:AH90)</f>
+        <v>88.806818181818187</v>
       </c>
       <c r="T7" s="2">
-        <f>AVERAGE('6.1'!AJ3:AJ125)</f>
-        <v>81.666666666666671</v>
+        <f>AVERAGE('6.1'!AJ3:AJ90)</f>
+        <v>84.647727272727266</v>
       </c>
       <c r="U7" s="2">
-        <f>AVERAGE('6.1'!AL3:AL125)</f>
-        <v>83.943089430894304</v>
+        <f>AVERAGE('6.1'!AL3:AL90)</f>
+        <v>86.63636363636364</v>
       </c>
       <c r="V7" s="2">
-        <f>AVERAGE('6.1'!AN3:AN125)</f>
-        <v>83.300813008130078</v>
+        <f>AVERAGE('6.1'!AN3:AN90)</f>
+        <v>87.25</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -45417,18 +45503,18 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:I8" si="0">MAX(0,(D8+(E7-AVERAGE($C7:$V7))-$B$9))</f>
-        <v>0.14994407289734768</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0584418669218665E-2</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(0,(F8+(G7-AVERAGE($C7:$V7))-$B$9))</f>
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(0,(G8+(H7-AVERAGE($C7:$V7))-$B$9))</f>
         <v>0</v>
       </c>
       <c r="I8" s="2">
@@ -45453,7 +45539,7 @@
       </c>
       <c r="N8" s="2">
         <f t="shared" ref="N8:O8" si="5">MAX(0,(M8+(N7-AVERAGE($C7:$V7))-$B$9))</f>
-        <v>1.2881554550111569</v>
+        <v>1.2378571459419381</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
@@ -45465,27 +45551,27 @@
       </c>
       <c r="Q8" s="2">
         <f t="shared" ref="Q8" si="7">MAX(0,(P8+(Q7-AVERAGE($C7:$V7))-$B$9))</f>
-        <v>3.1011635850924715</v>
+        <v>3.0901298732146718</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ref="R8" si="8">MAX(0,(Q8+(R7-AVERAGE($C7:$V7))-$B$9))</f>
-        <v>4.2673678205914447</v>
+        <v>4.9302597464293436</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" ref="S8" si="9">MAX(0,(R8+(S7-AVERAGE($C7:$V7))-$B$9))</f>
-        <v>4.8075557959278168</v>
+        <v>5.7362987105531094</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" ref="T8:U8" si="10">MAX(0,(S8+(T7-AVERAGE($C7:$V7))-$B$9))</f>
-        <v>2.3640039338658148</v>
+        <v>2.3832467655859539</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="10"/>
-        <v>2.1968748360314452</v>
+        <v>1.0188311842551725</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" ref="V8" si="11">MAX(0,(U8+(V7-AVERAGE($C7:$V7))-$B$9))</f>
-        <v>1.3874693154328495</v>
+        <v>0.26805196656075092</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -45494,7 +45580,7 @@
       </c>
       <c r="B9">
         <f>_xlfn.STDEV.P(C7:V7)*0.5</f>
-        <v>0.77119413848476681</v>
+        <v>0.86498376314897685</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -45504,7 +45590,222 @@
       </c>
       <c r="B10">
         <f>_xlfn.STDEV.P(C7:V7)*2</f>
-        <v>3.0847765539390672</v>
+        <v>3.4599350525959074</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C28" s="9">
+        <v>1996</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1997</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1998</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1999</v>
+      </c>
+      <c r="G28" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H28" s="10">
+        <v>2001</v>
+      </c>
+      <c r="I28" s="10">
+        <v>2002</v>
+      </c>
+      <c r="J28" s="10">
+        <v>2003</v>
+      </c>
+      <c r="K28" s="10">
+        <v>2004</v>
+      </c>
+      <c r="L28" s="11">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="12">
+        <v>91</v>
+      </c>
+      <c r="D29" s="13">
+        <v>87</v>
+      </c>
+      <c r="E29" s="13">
+        <v>100</v>
+      </c>
+      <c r="F29" s="13">
+        <v>81</v>
+      </c>
+      <c r="G29" s="13">
+        <v>67</v>
+      </c>
+      <c r="H29" s="13">
+        <v>86</v>
+      </c>
+      <c r="I29" s="13">
+        <v>86</v>
+      </c>
+      <c r="J29" s="13">
+        <v>91</v>
+      </c>
+      <c r="K29" s="13">
+        <v>103</v>
+      </c>
+      <c r="L29" s="14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="d">
+        <v>2018-07-01</v>
+      </c>
+      <c r="C30" s="15" t="d">
+        <f>$B$30+C29</f>
+        <v>2018-09-30</v>
+      </c>
+      <c r="D30" s="16" t="d">
+        <f t="shared" ref="D30:V30" si="12">$B$30+D29</f>
+        <v>2018-09-26</v>
+      </c>
+      <c r="E30" s="16" t="d">
+        <f t="shared" si="12"/>
+        <v>2018-10-09</v>
+      </c>
+      <c r="F30" s="16" t="d">
+        <f t="shared" si="12"/>
+        <v>2018-09-20</v>
+      </c>
+      <c r="G30" s="16" t="d">
+        <f t="shared" si="12"/>
+        <v>2018-09-06</v>
+      </c>
+      <c r="H30" s="16" t="d">
+        <f t="shared" si="12"/>
+        <v>2018-09-25</v>
+      </c>
+      <c r="I30" s="16" t="d">
+        <f t="shared" si="12"/>
+        <v>2018-09-25</v>
+      </c>
+      <c r="J30" s="16" t="d">
+        <f t="shared" si="12"/>
+        <v>2018-09-30</v>
+      </c>
+      <c r="K30" s="16" t="d">
+        <f t="shared" si="12"/>
+        <v>2018-10-12</v>
+      </c>
+      <c r="L30" s="17" t="d">
+        <f>$B$30+L29</f>
+        <v>2018-10-08</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C31" s="18">
+        <v>2006</v>
+      </c>
+      <c r="D31" s="19">
+        <v>2007</v>
+      </c>
+      <c r="E31" s="19">
+        <v>2008</v>
+      </c>
+      <c r="F31" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G31" s="19">
+        <v>2010</v>
+      </c>
+      <c r="H31" s="19">
+        <v>2011</v>
+      </c>
+      <c r="I31" s="19">
+        <v>2012</v>
+      </c>
+      <c r="J31" s="19">
+        <v>2013</v>
+      </c>
+      <c r="K31" s="19">
+        <v>2014</v>
+      </c>
+      <c r="L31" s="20">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="12">
+        <v>82</v>
+      </c>
+      <c r="D32" s="13">
+        <v>79</v>
+      </c>
+      <c r="E32" s="13">
+        <v>109</v>
+      </c>
+      <c r="F32" s="13">
+        <v>95</v>
+      </c>
+      <c r="G32" s="13">
+        <v>90</v>
+      </c>
+      <c r="H32" s="13">
+        <v>67</v>
+      </c>
+      <c r="I32" s="13">
+        <v>93</v>
+      </c>
+      <c r="J32" s="13">
+        <v>47</v>
+      </c>
+      <c r="K32" s="13">
+        <v>89</v>
+      </c>
+      <c r="L32" s="14">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C33" s="21" t="d">
+        <f>$B$30+C32</f>
+        <v>2018-09-21</v>
+      </c>
+      <c r="D33" s="22" t="d">
+        <f>$B$30+D32</f>
+        <v>2018-09-18</v>
+      </c>
+      <c r="E33" s="22" t="d">
+        <f>$B$30+E32</f>
+        <v>2018-10-18</v>
+      </c>
+      <c r="F33" s="22" t="d">
+        <f>$B$30+F32</f>
+        <v>2018-10-04</v>
+      </c>
+      <c r="G33" s="22" t="d">
+        <f>$B$30+G32</f>
+        <v>2018-09-29</v>
+      </c>
+      <c r="H33" s="22" t="d">
+        <f>$B$30+H32</f>
+        <v>2018-09-06</v>
+      </c>
+      <c r="I33" s="22" t="d">
+        <f>$B$30+I32</f>
+        <v>2018-10-02</v>
+      </c>
+      <c r="J33" s="22" t="d">
+        <f>$B$30+J32</f>
+        <v>2018-08-17</v>
+      </c>
+      <c r="K33" s="22" t="d">
+        <f>$B$30+K32</f>
+        <v>2018-09-28</v>
+      </c>
+      <c r="L33" s="23" t="d">
+        <f>$B$30+L32</f>
+        <v>2018-09-26</v>
       </c>
     </row>
   </sheetData>

--- a/Week 3/Week 3 Homework.xlsx
+++ b/Week 3/Week 3 Homework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6.1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="13" uniqueCount="8">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="15" uniqueCount="9">
   <si>
     <t>DAY</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Std. Dev</t>
   </si>
 </sst>
 </file>
@@ -19965,9 +19968,114 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5796717225707532E-3"/>
+                  <c:y val="0.2160942477610146"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65%"/>
+                          <a:lumOff val="35%"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6.2'!$C$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'6.2'!$C$7:$V$7</c:f>
@@ -20063,6 +20171,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -20101,7 +20210,7 @@
         </c:txPr>
         <c:crossAx val="1766429647"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
@@ -20110,7 +20219,7 @@
         <c:axId val="1766429647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="90"/>
+          <c:max val="92"/>
           <c:min val="75"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -21704,10 +21813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR219"/>
+  <dimension ref="A1:BC219"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126:AQ126"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AM107" sqref="AM107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21758,7 +21867,7 @@
     <col min="44" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="C1" s="5">
         <f>B2</f>
         <v>1996</v>
@@ -21846,7 +21955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -21911,7 +22020,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="d">
         <v>2018-07-01</v>
       </c>
@@ -22064,8 +22173,38 @@
         <v>0</v>
       </c>
       <c r="AR3" s="3"/>
+      <c r="AT3" s="9">
+        <v>1996</v>
+      </c>
+      <c r="AU3" s="10">
+        <v>1997</v>
+      </c>
+      <c r="AV3" s="10">
+        <v>1998</v>
+      </c>
+      <c r="AW3" s="10">
+        <v>1999</v>
+      </c>
+      <c r="AX3" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AY3" s="10">
+        <v>2001</v>
+      </c>
+      <c r="AZ3" s="10">
+        <v>2002</v>
+      </c>
+      <c r="BA3" s="10">
+        <v>2003</v>
+      </c>
+      <c r="BB3" s="10">
+        <v>2004</v>
+      </c>
+      <c r="BC3" s="11">
+        <v>2005</v>
+      </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="d">
         <v>2018-07-02</v>
       </c>
@@ -22218,8 +22357,38 @@
         <v>0</v>
       </c>
       <c r="AR4" s="3"/>
+      <c r="AT4" s="12">
+        <v>91</v>
+      </c>
+      <c r="AU4" s="13">
+        <v>87</v>
+      </c>
+      <c r="AV4" s="13">
+        <v>100</v>
+      </c>
+      <c r="AW4" s="13">
+        <v>81</v>
+      </c>
+      <c r="AX4" s="13">
+        <v>67</v>
+      </c>
+      <c r="AY4" s="13">
+        <v>86</v>
+      </c>
+      <c r="AZ4" s="13">
+        <v>86</v>
+      </c>
+      <c r="BA4" s="13">
+        <v>91</v>
+      </c>
+      <c r="BB4" s="13">
+        <v>103</v>
+      </c>
+      <c r="BC4" s="14">
+        <v>99</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="d">
         <v>2018-07-03</v>
       </c>
@@ -22372,8 +22541,38 @@
         <v>0</v>
       </c>
       <c r="AR5" s="3"/>
+      <c r="AT5" s="15" t="d">
+        <v>2018-09-30</v>
+      </c>
+      <c r="AU5" s="16" t="d">
+        <v>2018-09-26</v>
+      </c>
+      <c r="AV5" s="16" t="d">
+        <v>2018-10-09</v>
+      </c>
+      <c r="AW5" s="16" t="d">
+        <v>2018-09-20</v>
+      </c>
+      <c r="AX5" s="16" t="d">
+        <v>2018-09-06</v>
+      </c>
+      <c r="AY5" s="16" t="d">
+        <v>2018-09-25</v>
+      </c>
+      <c r="AZ5" s="16" t="d">
+        <v>2018-09-25</v>
+      </c>
+      <c r="BA5" s="16" t="d">
+        <v>2018-09-30</v>
+      </c>
+      <c r="BB5" s="16" t="d">
+        <v>2018-10-12</v>
+      </c>
+      <c r="BC5" s="17" t="d">
+        <v>2018-10-08</v>
+      </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="d">
         <v>2018-07-04</v>
       </c>
@@ -22526,8 +22725,38 @@
         <v>0</v>
       </c>
       <c r="AR6" s="3"/>
+      <c r="AT6" s="18">
+        <v>2006</v>
+      </c>
+      <c r="AU6" s="19">
+        <v>2007</v>
+      </c>
+      <c r="AV6" s="19">
+        <v>2008</v>
+      </c>
+      <c r="AW6" s="19">
+        <v>2009</v>
+      </c>
+      <c r="AX6" s="19">
+        <v>2010</v>
+      </c>
+      <c r="AY6" s="19">
+        <v>2011</v>
+      </c>
+      <c r="AZ6" s="19">
+        <v>2012</v>
+      </c>
+      <c r="BA6" s="19">
+        <v>2013</v>
+      </c>
+      <c r="BB6" s="19">
+        <v>2014</v>
+      </c>
+      <c r="BC6" s="20">
+        <v>2015</v>
+      </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="d">
         <v>2018-07-05</v>
       </c>
@@ -22680,8 +22909,38 @@
         <v>0</v>
       </c>
       <c r="AR7" s="3"/>
+      <c r="AT7" s="12">
+        <v>82</v>
+      </c>
+      <c r="AU7" s="13">
+        <v>79</v>
+      </c>
+      <c r="AV7" s="13">
+        <v>109</v>
+      </c>
+      <c r="AW7" s="13">
+        <v>95</v>
+      </c>
+      <c r="AX7" s="13">
+        <v>90</v>
+      </c>
+      <c r="AY7" s="13">
+        <v>67</v>
+      </c>
+      <c r="AZ7" s="13">
+        <v>93</v>
+      </c>
+      <c r="BA7" s="13">
+        <v>47</v>
+      </c>
+      <c r="BB7" s="13">
+        <v>89</v>
+      </c>
+      <c r="BC7" s="14">
+        <v>87</v>
+      </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="d">
         <v>2018-07-06</v>
       </c>
@@ -22834,8 +23093,38 @@
         <v>0</v>
       </c>
       <c r="AR8" s="3"/>
+      <c r="AT8" s="21" t="d">
+        <v>2018-09-21</v>
+      </c>
+      <c r="AU8" s="22" t="d">
+        <v>2018-09-18</v>
+      </c>
+      <c r="AV8" s="22" t="d">
+        <v>2018-10-18</v>
+      </c>
+      <c r="AW8" s="22" t="d">
+        <v>2018-10-04</v>
+      </c>
+      <c r="AX8" s="22" t="d">
+        <v>2018-09-29</v>
+      </c>
+      <c r="AY8" s="22" t="d">
+        <v>2018-09-06</v>
+      </c>
+      <c r="AZ8" s="22" t="d">
+        <v>2018-10-02</v>
+      </c>
+      <c r="BA8" s="22" t="d">
+        <v>2018-08-17</v>
+      </c>
+      <c r="BB8" s="22" t="d">
+        <v>2018-09-28</v>
+      </c>
+      <c r="BC8" s="23" t="d">
+        <v>2018-09-26</v>
+      </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="d">
         <v>2018-07-07</v>
       </c>
@@ -22989,7 +23278,7 @@
       </c>
       <c r="AR9" s="3"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="d">
         <v>2018-07-08</v>
       </c>
@@ -23143,7 +23432,7 @@
       </c>
       <c r="AR10" s="3"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="d">
         <v>2018-07-09</v>
       </c>
@@ -23297,7 +23586,7 @@
       </c>
       <c r="AR11" s="3"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="d">
         <v>2018-07-10</v>
       </c>
@@ -23451,7 +23740,7 @@
       </c>
       <c r="AR12" s="3"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="d">
         <v>2018-07-11</v>
       </c>
@@ -23605,7 +23894,7 @@
       </c>
       <c r="AR13" s="3"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="d">
         <v>2018-07-12</v>
       </c>
@@ -23759,7 +24048,7 @@
       </c>
       <c r="AR14" s="3"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="d">
         <v>2018-07-13</v>
       </c>
@@ -23913,7 +24202,7 @@
       </c>
       <c r="AR15" s="3"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="d">
         <v>2018-07-14</v>
       </c>
@@ -45119,10 +45408,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45266,83 +45555,83 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <f>MAX(0,(B3+(C2-AVERAGE($C2:$V2))-$B$4))</f>
+        <f>MAX(0,(B3+(C2-AVERAGE($C2:C2))-$B$4))</f>
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f>MAX(0,(C3+(D2-AVERAGE($C2:$V2))-$B$4))</f>
+        <f>MAX(0,(C3+(D2-AVERAGE($C2:D2))-$B$4))</f>
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <f>MAX(0,(D3+(E2-AVERAGE($C2:$V2))-$B$4))</f>
-        <v>6.7318715911182752</v>
+        <f>MAX(0,(D3+(E2-AVERAGE($C2:E2))-$B$4))</f>
+        <v>0.51520492445160659</v>
       </c>
       <c r="F3" s="2">
-        <f>MAX(0,(E3+(F2-AVERAGE($C2:$V2))-$B$4))</f>
+        <f>MAX(0,(E3+(F2-AVERAGE($C2:F2))-$B$4))</f>
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <f>MAX(0,(F3+(G2-AVERAGE($C2:$V2))-$B$4))</f>
+        <f>MAX(0,(F3+(G2-AVERAGE($C2:G2))-$B$4))</f>
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <f>MAX(0,(G3+(H2-AVERAGE($C2:$V2))-$B$4))</f>
+        <f>MAX(0,(G3+(H2-AVERAGE($C2:H2))-$B$4))</f>
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <f>MAX(0,(H3+(I2-AVERAGE($C2:$V2))-$B$4))</f>
+        <f>MAX(0,(H3+(I2-AVERAGE($C2:I2))-$B$4))</f>
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f>MAX(0,(I3+(J2-AVERAGE($C2:$V2))-$B$4))</f>
+        <f>MAX(0,(I3+(J2-AVERAGE($C2:J2))-$B$4))</f>
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f>MAX(0,(J3+(K2-AVERAGE($C2:$V2))-$B$4))</f>
-        <v>9.7318715911182743</v>
+        <f>MAX(0,(J3+(K2-AVERAGE($C2:K2))-$B$4))</f>
+        <v>8.1818715911182771</v>
       </c>
       <c r="L3" s="2">
-        <f>MAX(0,(K3+(L2-AVERAGE($C2:$V2))-$B$4))</f>
-        <v>15.463743182236549</v>
+        <f>MAX(0,(K3+(L2-AVERAGE($C2:L2))-$B$4))</f>
+        <v>11.26374318223656</v>
       </c>
       <c r="M3" s="2">
-        <f>MAX(0,(L3+(M2-AVERAGE($C2:$V2))-$B$4))</f>
-        <v>4.1956147733548237</v>
+        <f>MAX(0,(L3+(M2-AVERAGE($C2:M2))-$B$4))</f>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
-        <f>MAX(0,(M3+(N2-AVERAGE($C2:$V2))-$B$4))</f>
+        <f>MAX(0,(M3+(N2-AVERAGE($C2:N2))-$B$4))</f>
         <v>0</v>
       </c>
       <c r="O3" s="2">
-        <f>MAX(0,(N3+(O2-AVERAGE($C2:$V2))-$B$4))</f>
-        <v>15.731871591118274</v>
+        <f>MAX(0,(N3+(O2-AVERAGE($C2:O2))-$B$4))</f>
+        <v>12.874179283425971</v>
       </c>
       <c r="P3" s="2">
-        <f>MAX(0,(O3+(P2-AVERAGE($C2:$V2))-$B$4))</f>
-        <v>17.463743182236549</v>
+        <f>MAX(0,(O3+(P2-AVERAGE($C2:P2))-$B$4))</f>
+        <v>11.341765160258539</v>
       </c>
       <c r="Q3" s="2">
-        <f>MAX(0,(P3+(Q2-AVERAGE($C2:$V2))-$B$4))</f>
-        <v>14.195614773354823</v>
+        <f>MAX(0,(P3+(Q2-AVERAGE($C2:Q2))-$B$4))</f>
+        <v>4.7903034180434831</v>
       </c>
       <c r="R3" s="2">
-        <f>MAX(0,(Q3+(R2-AVERAGE($C2:$V2))-$B$4))</f>
+        <f>MAX(0,(Q3+(R2-AVERAGE($C2:R2))-$B$4))</f>
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <f>MAX(0,(R3+(S2-AVERAGE($C2:$V2))-$B$4))</f>
+        <f>MAX(0,(R3+(S2-AVERAGE($C2:S2))-$B$4))</f>
         <v>0</v>
       </c>
       <c r="T3" s="2">
-        <f>MAX(0,(S3+(T2-AVERAGE($C2:$V2))-$B$4))</f>
+        <f>MAX(0,(S3+(T2-AVERAGE($C2:T2))-$B$4))</f>
         <v>0</v>
       </c>
       <c r="U3" s="2">
-        <f>MAX(0,(T3+(U2-AVERAGE($C2:$V2))-$B$4))</f>
+        <f>MAX(0,(T3+(U2-AVERAGE($C2:U2))-$B$4))</f>
         <v>0</v>
       </c>
       <c r="V3" s="2">
-        <f>MAX(0,(U3+(V2-AVERAGE($C2:$V2))-$B$4))</f>
+        <f>MAX(0,(U3+(V2-AVERAGE($C2:V2))-$B$4))</f>
         <v>0</v>
       </c>
     </row>
@@ -45351,7 +45640,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <f>_xlfn.STDEV.P(C2:V2)*0.5</f>
+        <f>B6*0.5</f>
         <v>6.818128408881722</v>
       </c>
       <c r="C4" s="2"/>
@@ -45380,7 +45669,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <f>_xlfn.STDEV.P(C2:V2)*2</f>
+        <f>B6*2</f>
         <v>27.272513635526888</v>
       </c>
       <c r="C5" s="2"/>
@@ -45404,6 +45693,75 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <f>_xlfn.STDEV.P(C2:V2)</f>
+        <v>13.636256817763444</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1996</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1997</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1998</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1999</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2002</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2003</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2004</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2005</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2006</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2007</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2008</v>
+      </c>
+      <c r="P6" s="4">
+        <v>2009</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>2010</v>
+      </c>
+      <c r="R6" s="4">
+        <v>2011</v>
+      </c>
+      <c r="S6" s="4">
+        <v>2012</v>
+      </c>
+      <c r="T6" s="4">
+        <v>2013</v>
+      </c>
+      <c r="U6" s="4">
+        <v>2014</v>
+      </c>
+      <c r="V6" s="4">
+        <v>2015</v>
+      </c>
+    </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
@@ -45494,84 +45852,84 @@
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <f>MAX(0,(B8+(C7-AVERAGE($C7:$V7))-$B$9))</f>
+        <f>MAX(0,(B8+(C7-AVERAGE($C7:C7))-$B$9))</f>
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <f>MAX(0,(C8+(D7-AVERAGE($C7:$V7))-$B$9))</f>
+        <f>MAX(0,(C8+(D7-AVERAGE($C7:D7))-$B$9))</f>
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ref="E8:I8" si="0">MAX(0,(D8+(E7-AVERAGE($C7:$V7))-$B$9))</f>
+        <f>MAX(0,(D8+(E7-AVERAGE($C7:E7))-$B$9))</f>
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0584418669218665E-2</v>
+        <f>MAX(0,(E8+(F7-AVERAGE($C7:F7))-$B$9))</f>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <f>MAX(0,(F8+(G7-AVERAGE($C7:$V7))-$B$9))</f>
+        <f>MAX(0,(F8+(G7-AVERAGE($C7:G7))-$B$9))</f>
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <f>MAX(0,(G8+(H7-AVERAGE($C7:$V7))-$B$9))</f>
+        <f>MAX(0,(G8+(H7-AVERAGE($C7:H7))-$B$9))</f>
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(0,(H8+(I7-AVERAGE($C7:I7))-$B$9))</f>
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" ref="J8" si="1">MAX(0,(I8+(J7-AVERAGE($C7:$V7))-$B$9))</f>
+        <f>MAX(0,(I8+(J7-AVERAGE($C7:J7))-$B$9))</f>
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" ref="K8" si="2">MAX(0,(J8+(K7-AVERAGE($C7:$V7))-$B$9))</f>
+        <f>MAX(0,(J8+(K7-AVERAGE($C7:K7))-$B$9))</f>
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" ref="L8" si="3">MAX(0,(K8+(L7-AVERAGE($C7:$V7))-$B$9))</f>
+        <f>MAX(0,(K8+(L7-AVERAGE($C7:L7))-$B$9))</f>
         <v>0</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" ref="M8" si="4">MAX(0,(L8+(M7-AVERAGE($C7:$V7))-$B$9))</f>
+        <f>MAX(0,(L8+(M7-AVERAGE($C7:M7))-$B$9))</f>
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" ref="N8:O8" si="5">MAX(0,(M8+(N7-AVERAGE($C7:$V7))-$B$9))</f>
-        <v>1.2378571459419381</v>
+        <f>MAX(0,(M8+(N7-AVERAGE($C7:N7))-$B$9))</f>
+        <v>1.3352272727272805</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="5"/>
+        <f>MAX(0,(N8+(O7-AVERAGE($C7:O7))-$B$9))</f>
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" ref="P8" si="6">MAX(0,(O8+(P7-AVERAGE($C7:$V7))-$B$9))</f>
+        <f>MAX(0,(O8+(P7-AVERAGE($C7:P7))-$B$9))</f>
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" ref="Q8" si="7">MAX(0,(P8+(Q7-AVERAGE($C7:$V7))-$B$9))</f>
-        <v>3.0901298732146718</v>
+        <f>MAX(0,(P8+(Q7-AVERAGE($C7:Q7))-$B$9))</f>
+        <v>3.0553030303030368</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" ref="R8" si="8">MAX(0,(Q8+(R7-AVERAGE($C7:$V7))-$B$9))</f>
-        <v>4.9302597464293436</v>
+        <f>MAX(0,(Q8+(R7-AVERAGE($C7:R7))-$B$9))</f>
+        <v>4.6852746212121446</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" ref="S8" si="9">MAX(0,(R8+(S7-AVERAGE($C7:$V7))-$B$9))</f>
-        <v>5.7362987105531094</v>
+        <f>MAX(0,(R8+(S7-AVERAGE($C7:S7))-$B$9))</f>
+        <v>5.1872799688057398</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" ref="T8:U8" si="10">MAX(0,(S8+(T7-AVERAGE($C7:$V7))-$B$9))</f>
-        <v>2.3832467655859539</v>
+        <f>MAX(0,(S8+(T7-AVERAGE($C7:T7))-$B$9))</f>
+        <v>1.6778102718360515</v>
       </c>
       <c r="U8" s="2">
-        <f t="shared" si="10"/>
-        <v>1.0188311842551725</v>
+        <f>MAX(0,(T8+(U7-AVERAGE($C7:U7))-$B$9))</f>
+        <v>0.18438921920447626</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" ref="V8" si="11">MAX(0,(U8+(V7-AVERAGE($C7:$V7))-$B$9))</f>
-        <v>0.26805196656075092</v>
+        <f>MAX(0,(U8+(V7-AVERAGE($C7:V7))-$B$9))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -45579,8 +45937,7 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <f>_xlfn.STDEV.P(C7:V7)*0.5</f>
-        <v>0.86498376314897685</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -45589,225 +45946,24 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <f>_xlfn.STDEV.P(C7:V7)*2</f>
-        <v>3.4599350525959074</v>
+        <f>B11*3</f>
+        <v>5.1899025788938609</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C28" s="9">
-        <v>1996</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1997</v>
-      </c>
-      <c r="E28" s="10">
-        <v>1998</v>
-      </c>
-      <c r="F28" s="10">
-        <v>1999</v>
-      </c>
-      <c r="G28" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H28" s="10">
-        <v>2001</v>
-      </c>
-      <c r="I28" s="10">
-        <v>2002</v>
-      </c>
-      <c r="J28" s="10">
-        <v>2003</v>
-      </c>
-      <c r="K28" s="10">
-        <v>2004</v>
-      </c>
-      <c r="L28" s="11">
-        <v>2005</v>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <f>_xlfn.STDEV.P(C7:V7)</f>
+        <v>1.7299675262979537</v>
       </c>
     </row>
-    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="12">
-        <v>91</v>
-      </c>
-      <c r="D29" s="13">
-        <v>87</v>
-      </c>
-      <c r="E29" s="13">
-        <v>100</v>
-      </c>
-      <c r="F29" s="13">
-        <v>81</v>
-      </c>
-      <c r="G29" s="13">
-        <v>67</v>
-      </c>
-      <c r="H29" s="13">
-        <v>86</v>
-      </c>
-      <c r="I29" s="13">
-        <v>86</v>
-      </c>
-      <c r="J29" s="13">
-        <v>91</v>
-      </c>
-      <c r="K29" s="13">
-        <v>103</v>
-      </c>
-      <c r="L29" s="14">
-        <v>99</v>
-      </c>
+    <row r="29" spans="2:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="8"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="8" t="d">
-        <v>2018-07-01</v>
-      </c>
-      <c r="C30" s="15" t="d">
-        <f>$B$30+C29</f>
-        <v>2018-09-30</v>
-      </c>
-      <c r="D30" s="16" t="d">
-        <f t="shared" ref="D30:V30" si="12">$B$30+D29</f>
-        <v>2018-09-26</v>
-      </c>
-      <c r="E30" s="16" t="d">
-        <f t="shared" si="12"/>
-        <v>2018-10-09</v>
-      </c>
-      <c r="F30" s="16" t="d">
-        <f t="shared" si="12"/>
-        <v>2018-09-20</v>
-      </c>
-      <c r="G30" s="16" t="d">
-        <f t="shared" si="12"/>
-        <v>2018-09-06</v>
-      </c>
-      <c r="H30" s="16" t="d">
-        <f t="shared" si="12"/>
-        <v>2018-09-25</v>
-      </c>
-      <c r="I30" s="16" t="d">
-        <f t="shared" si="12"/>
-        <v>2018-09-25</v>
-      </c>
-      <c r="J30" s="16" t="d">
-        <f t="shared" si="12"/>
-        <v>2018-09-30</v>
-      </c>
-      <c r="K30" s="16" t="d">
-        <f t="shared" si="12"/>
-        <v>2018-10-12</v>
-      </c>
-      <c r="L30" s="17" t="d">
-        <f>$B$30+L29</f>
-        <v>2018-10-08</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C31" s="18">
-        <v>2006</v>
-      </c>
-      <c r="D31" s="19">
-        <v>2007</v>
-      </c>
-      <c r="E31" s="19">
-        <v>2008</v>
-      </c>
-      <c r="F31" s="19">
-        <v>2009</v>
-      </c>
-      <c r="G31" s="19">
-        <v>2010</v>
-      </c>
-      <c r="H31" s="19">
-        <v>2011</v>
-      </c>
-      <c r="I31" s="19">
-        <v>2012</v>
-      </c>
-      <c r="J31" s="19">
-        <v>2013</v>
-      </c>
-      <c r="K31" s="19">
-        <v>2014</v>
-      </c>
-      <c r="L31" s="20">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="12">
-        <v>82</v>
-      </c>
-      <c r="D32" s="13">
-        <v>79</v>
-      </c>
-      <c r="E32" s="13">
-        <v>109</v>
-      </c>
-      <c r="F32" s="13">
-        <v>95</v>
-      </c>
-      <c r="G32" s="13">
-        <v>90</v>
-      </c>
-      <c r="H32" s="13">
-        <v>67</v>
-      </c>
-      <c r="I32" s="13">
-        <v>93</v>
-      </c>
-      <c r="J32" s="13">
-        <v>47</v>
-      </c>
-      <c r="K32" s="13">
-        <v>89</v>
-      </c>
-      <c r="L32" s="14">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C33" s="21" t="d">
-        <f>$B$30+C32</f>
-        <v>2018-09-21</v>
-      </c>
-      <c r="D33" s="22" t="d">
-        <f>$B$30+D32</f>
-        <v>2018-09-18</v>
-      </c>
-      <c r="E33" s="22" t="d">
-        <f>$B$30+E32</f>
-        <v>2018-10-18</v>
-      </c>
-      <c r="F33" s="22" t="d">
-        <f>$B$30+F32</f>
-        <v>2018-10-04</v>
-      </c>
-      <c r="G33" s="22" t="d">
-        <f>$B$30+G32</f>
-        <v>2018-09-29</v>
-      </c>
-      <c r="H33" s="22" t="d">
-        <f>$B$30+H32</f>
-        <v>2018-09-06</v>
-      </c>
-      <c r="I33" s="22" t="d">
-        <f>$B$30+I32</f>
-        <v>2018-10-02</v>
-      </c>
-      <c r="J33" s="22" t="d">
-        <f>$B$30+J32</f>
-        <v>2018-08-17</v>
-      </c>
-      <c r="K33" s="22" t="d">
-        <f>$B$30+K32</f>
-        <v>2018-09-28</v>
-      </c>
-      <c r="L33" s="23" t="d">
-        <f>$B$30+L32</f>
-        <v>2018-09-26</v>
-      </c>
-    </row>
+    <row r="32" spans="2:2" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="C3:V3">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">

--- a/Week 3/Week 3 Homework.xlsx
+++ b/Week 3/Week 3 Homework.xlsx
@@ -21815,7 +21815,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="AM107" sqref="AM107"/>
     </sheetView>
   </sheetViews>
